--- a/Bd/Dicionário_Dados_Microstart.xlsx
+++ b/Bd/Dicionário_Dados_Microstart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24722"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Criação de Sites\BRMODELOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\MicroStart\Bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{7C452921-5B1F-43E8-90E1-088B49E4CD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29B84E25-A5F1-4E27-8A0D-96001F3F050C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD559922-3DBC-44C5-92B1-F9E3E2F4DEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F97B2F44-631C-4B1A-B8A0-EC6BCA9D2207}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F97B2F44-631C-4B1A-B8A0-EC6BCA9D2207}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="84">
   <si>
     <t>DICIONÁRIO DE DADOS</t>
   </si>
@@ -69,9 +69,6 @@
     <t>PK/FK/NOT NULL/DEFAULT</t>
   </si>
   <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>REGISTRA AS VENDAS FEITAS PARA O CLIENTE</t>
   </si>
   <si>
-    <t>CODIGO_CLIE</t>
-  </si>
-  <si>
     <t>CODIGO_PAG</t>
   </si>
   <si>
@@ -265,13 +259,40 @@
   </si>
   <si>
     <t>ARMAZENA AS TRANSPORTADORAS</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>SENHA</t>
+  </si>
+  <si>
+    <t>CODIGO_TEL</t>
+  </si>
+  <si>
+    <t>CODIGO_CON_END_CLI</t>
+  </si>
+  <si>
+    <t>CODIGO_CON_END_FORN</t>
+  </si>
+  <si>
+    <t>CODIGO_TEL_FORN</t>
+  </si>
+  <si>
+    <t>CODIGO_FORN_PRODUTO</t>
+  </si>
+  <si>
+    <t>CODIGO_ITEM_VENDA</t>
+  </si>
+  <si>
+    <t>CODIGO_REGISTRO_VENDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +312,27 @@
       <color theme="1"/>
       <name val="Algerian"/>
       <family val="5"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -513,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -617,6 +659,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,7 +692,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -933,13 +990,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25B40A3-EAC1-4FDA-A215-91A86A7DB5E8}">
   <dimension ref="A1:P195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190:G190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L188" sqref="L188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickTop="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -957,7 +1014,7 @@
       <c r="O1" s="8"/>
       <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -971,8 +1028,8 @@
       <c r="O2" s="11"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickTop="1"/>
-    <row r="4" spans="1:16">
+    <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -988,7 +1045,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1061,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1075,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1095,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="20"/>
@@ -1050,13 +1107,13 @@
       <c r="I8" s="23"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
@@ -1065,18 +1122,18 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
@@ -1085,18 +1142,18 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -1105,38 +1162,36 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="4">
-        <v>10</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
@@ -1145,42 +1200,58 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <v>50</v>
+      </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4">
+        <v>100</v>
+      </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1190,13 +1261,13 @@
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1206,7 +1277,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1220,7 +1291,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>7</v>
       </c>
@@ -1240,7 +1311,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -1252,13 +1323,13 @@
       <c r="I21" s="23"/>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="5"/>
@@ -1267,18 +1338,18 @@
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
@@ -1287,18 +1358,18 @@
       </c>
       <c r="G23" s="24"/>
       <c r="H23" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
@@ -1307,12 +1378,12 @@
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="24"/>
@@ -1324,7 +1395,7 @@
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="24"/>
@@ -1336,7 +1407,7 @@
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="24"/>
@@ -1348,7 +1419,7 @@
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="24"/>
@@ -1360,13 +1431,13 @@
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -1376,13 +1447,13 @@
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -1392,7 +1463,7 @@
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>6</v>
       </c>
@@ -1406,7 +1477,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1497,7 @@
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -1438,13 +1509,13 @@
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="24" t="s">
-        <v>11</v>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>78</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -1453,18 +1524,18 @@
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -1473,18 +1544,18 @@
       </c>
       <c r="G36" s="24"/>
       <c r="H36" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -1493,18 +1564,18 @@
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -1513,18 +1584,18 @@
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -1533,18 +1604,18 @@
       </c>
       <c r="G39" s="24"/>
       <c r="H39" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -1554,13 +1625,13 @@
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
@@ -1570,7 +1641,7 @@
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>6</v>
       </c>
@@ -1584,7 +1655,7 @@
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1675,7 @@
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -1616,13 +1687,13 @@
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
@@ -1631,18 +1702,18 @@
       </c>
       <c r="G46" s="24"/>
       <c r="H46" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -1651,18 +1722,18 @@
       </c>
       <c r="G47" s="24"/>
       <c r="H47" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
@@ -1671,18 +1742,18 @@
       </c>
       <c r="G48" s="24"/>
       <c r="H48" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
@@ -1691,18 +1762,18 @@
       </c>
       <c r="G49" s="24"/>
       <c r="H49" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
@@ -1711,18 +1782,18 @@
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
@@ -1731,18 +1802,18 @@
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
@@ -1751,22 +1822,22 @@
       </c>
       <c r="G52" s="24"/>
       <c r="H52" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -1776,13 +1847,13 @@
       <c r="I54" s="6"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -1792,7 +1863,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>6</v>
       </c>
@@ -1806,7 +1877,7 @@
       <c r="I56" s="16"/>
       <c r="J56" s="17"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +1897,7 @@
       <c r="I57" s="22"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="20"/>
@@ -1838,13 +1909,13 @@
       <c r="I58" s="23"/>
       <c r="J58" s="21"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
@@ -1853,18 +1924,18 @@
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
@@ -1873,18 +1944,18 @@
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="5"/>
@@ -1893,18 +1964,18 @@
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="5"/>
@@ -1913,18 +1984,18 @@
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="5"/>
@@ -1933,42 +2004,58 @@
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="4"/>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="B64" s="5"/>
-      <c r="C64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D64" s="6"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="4"/>
+      <c r="F64" s="4">
+        <v>50</v>
+      </c>
       <c r="G64" s="5"/>
-      <c r="H64" s="4"/>
+      <c r="H64" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I64" s="6"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="4"/>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="B65" s="5"/>
-      <c r="C65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D65" s="6"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="4"/>
+      <c r="F65" s="4">
+        <v>100</v>
+      </c>
       <c r="G65" s="5"/>
-      <c r="H65" s="4"/>
+      <c r="H65" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I65" s="6"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -1978,13 +2065,13 @@
       <c r="I67" s="6"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -1994,7 +2081,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>6</v>
       </c>
@@ -2008,7 +2095,7 @@
       <c r="I69" s="16"/>
       <c r="J69" s="17"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>7</v>
       </c>
@@ -2028,7 +2115,7 @@
       <c r="I70" s="22"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71" s="21"/>
       <c r="C71" s="20"/>
@@ -2040,13 +2127,13 @@
       <c r="I71" s="23"/>
       <c r="J71" s="21"/>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="41"/>
+      <c r="C72" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="5"/>
@@ -2055,18 +2142,18 @@
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="5"/>
@@ -2075,18 +2162,18 @@
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="5"/>
@@ -2095,18 +2182,18 @@
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="5"/>
@@ -2115,18 +2202,18 @@
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="5"/>
@@ -2135,12 +2222,12 @@
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="4"/>
@@ -2152,7 +2239,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="4"/>
@@ -2164,13 +2251,13 @@
       <c r="I78" s="6"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -2180,13 +2267,13 @@
       <c r="I80" s="6"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -2196,7 +2283,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>6</v>
       </c>
@@ -2210,7 +2297,7 @@
       <c r="I82" s="16"/>
       <c r="J82" s="17"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>7</v>
       </c>
@@ -2230,7 +2317,7 @@
       <c r="I83" s="22"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="21"/>
       <c r="C84" s="20"/>
@@ -2242,13 +2329,13 @@
       <c r="I84" s="23"/>
       <c r="J84" s="21"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="5"/>
@@ -2257,18 +2344,18 @@
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="5"/>
@@ -2277,18 +2364,18 @@
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="5"/>
@@ -2297,12 +2384,12 @@
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="4"/>
@@ -2314,7 +2401,7 @@
       <c r="I88" s="6"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="4"/>
@@ -2326,7 +2413,7 @@
       <c r="I89" s="6"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="4"/>
@@ -2338,7 +2425,7 @@
       <c r="I90" s="6"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="4"/>
@@ -2350,13 +2437,13 @@
       <c r="I91" s="6"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -2366,13 +2453,13 @@
       <c r="I93" s="6"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B94" s="14"/>
       <c r="C94" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -2382,7 +2469,7 @@
       <c r="I94" s="6"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>6</v>
       </c>
@@ -2396,7 +2483,7 @@
       <c r="I95" s="16"/>
       <c r="J95" s="17"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>7</v>
       </c>
@@ -2416,7 +2503,7 @@
       <c r="I96" s="22"/>
       <c r="J96" s="19"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="21"/>
       <c r="C97" s="20"/>
@@ -2428,13 +2515,13 @@
       <c r="I97" s="23"/>
       <c r="J97" s="21"/>
     </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B98" s="5"/>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="41"/>
       <c r="C98" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="5"/>
@@ -2443,18 +2530,18 @@
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="5"/>
@@ -2463,18 +2550,18 @@
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="5"/>
@@ -2483,12 +2570,12 @@
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="4"/>
@@ -2500,7 +2587,7 @@
       <c r="I101" s="6"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="4"/>
@@ -2512,7 +2599,7 @@
       <c r="I102" s="6"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="4"/>
@@ -2524,7 +2611,7 @@
       <c r="I103" s="6"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="4"/>
@@ -2536,13 +2623,13 @@
       <c r="I104" s="6"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B106" s="14"/>
       <c r="C106" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -2552,13 +2639,13 @@
       <c r="I106" s="6"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B107" s="14"/>
       <c r="C107" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -2568,7 +2655,7 @@
       <c r="I107" s="6"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>6</v>
       </c>
@@ -2582,7 +2669,7 @@
       <c r="I108" s="16"/>
       <c r="J108" s="17"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>7</v>
       </c>
@@ -2602,7 +2689,7 @@
       <c r="I109" s="22"/>
       <c r="J109" s="19"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="20"/>
       <c r="B110" s="21"/>
       <c r="C110" s="20"/>
@@ -2614,13 +2701,13 @@
       <c r="I110" s="23"/>
       <c r="J110" s="21"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="5"/>
@@ -2629,18 +2716,18 @@
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="5"/>
@@ -2649,18 +2736,18 @@
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="5"/>
@@ -2669,18 +2756,18 @@
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="5"/>
@@ -2689,18 +2776,18 @@
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B115" s="5"/>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115" s="39"/>
       <c r="C115" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="5"/>
@@ -2709,18 +2796,18 @@
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="5"/>
@@ -2729,18 +2816,18 @@
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="5"/>
@@ -2749,18 +2836,18 @@
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B119" s="14"/>
       <c r="C119" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
@@ -2770,13 +2857,13 @@
       <c r="I119" s="6"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B120" s="14"/>
       <c r="C120" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
@@ -2786,7 +2873,7 @@
       <c r="I120" s="6"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>6</v>
       </c>
@@ -2800,7 +2887,7 @@
       <c r="I121" s="16"/>
       <c r="J121" s="17"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>7</v>
       </c>
@@ -2820,7 +2907,7 @@
       <c r="I122" s="22"/>
       <c r="J122" s="19"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="20"/>
       <c r="B123" s="21"/>
       <c r="C123" s="20"/>
@@ -2832,13 +2919,13 @@
       <c r="I123" s="23"/>
       <c r="J123" s="21"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="5"/>
@@ -2847,18 +2934,18 @@
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="5"/>
@@ -2867,12 +2954,12 @@
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="4"/>
@@ -2884,7 +2971,7 @@
       <c r="I126" s="6"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="4"/>
@@ -2896,7 +2983,7 @@
       <c r="I127" s="6"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="4"/>
@@ -2908,7 +2995,7 @@
       <c r="I128" s="6"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="4"/>
@@ -2920,7 +3007,7 @@
       <c r="I129" s="6"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="4"/>
@@ -2932,13 +3019,13 @@
       <c r="I130" s="6"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B132" s="14"/>
       <c r="C132" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
@@ -2948,13 +3035,13 @@
       <c r="I132" s="6"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B133" s="14"/>
       <c r="C133" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
@@ -2964,7 +3051,7 @@
       <c r="I133" s="6"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>6</v>
       </c>
@@ -2978,7 +3065,7 @@
       <c r="I134" s="16"/>
       <c r="J134" s="17"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
         <v>7</v>
       </c>
@@ -2998,7 +3085,7 @@
       <c r="I135" s="22"/>
       <c r="J135" s="19"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="20"/>
       <c r="B136" s="21"/>
       <c r="C136" s="20"/>
@@ -3010,13 +3097,13 @@
       <c r="I136" s="23"/>
       <c r="J136" s="21"/>
     </row>
-    <row r="137" spans="1:10">
-      <c r="A137" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B137" s="5"/>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137" s="39"/>
       <c r="C137" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="5"/>
@@ -3025,18 +3112,18 @@
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="5"/>
@@ -3045,12 +3132,12 @@
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="4"/>
@@ -3062,7 +3149,7 @@
       <c r="I139" s="6"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="4"/>
@@ -3074,7 +3161,7 @@
       <c r="I140" s="6"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="4"/>
@@ -3086,7 +3173,7 @@
       <c r="I141" s="6"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="4"/>
@@ -3098,7 +3185,7 @@
       <c r="I142" s="6"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="4"/>
@@ -3110,13 +3197,13 @@
       <c r="I143" s="6"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B145" s="14"/>
       <c r="C145" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
@@ -3126,13 +3213,13 @@
       <c r="I145" s="6"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B146" s="14"/>
       <c r="C146" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
@@ -3142,7 +3229,7 @@
       <c r="I146" s="6"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>6</v>
       </c>
@@ -3156,7 +3243,7 @@
       <c r="I147" s="16"/>
       <c r="J147" s="17"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
         <v>7</v>
       </c>
@@ -3176,7 +3263,7 @@
       <c r="I148" s="22"/>
       <c r="J148" s="19"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="20"/>
       <c r="B149" s="21"/>
       <c r="C149" s="20"/>
@@ -3188,13 +3275,13 @@
       <c r="I149" s="23"/>
       <c r="J149" s="21"/>
     </row>
-    <row r="150" spans="1:10">
-      <c r="A150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" s="5"/>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B150" s="39"/>
       <c r="C150" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D150" s="6"/>
       <c r="E150" s="5"/>
@@ -3203,18 +3290,18 @@
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="5"/>
@@ -3223,18 +3310,18 @@
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="5"/>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D152" s="6"/>
       <c r="E152" s="5"/>
@@ -3243,18 +3330,18 @@
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="5"/>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="5"/>
@@ -3263,18 +3350,18 @@
       </c>
       <c r="G153" s="5"/>
       <c r="H153" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="5"/>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B154" s="5"/>
       <c r="C154" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="5"/>
@@ -3283,12 +3370,12 @@
       </c>
       <c r="G154" s="5"/>
       <c r="H154" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="4"/>
@@ -3300,7 +3387,7 @@
       <c r="I155" s="6"/>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="4"/>
@@ -3312,13 +3399,13 @@
       <c r="I156" s="6"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B158" s="14"/>
       <c r="C158" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
@@ -3328,13 +3415,13 @@
       <c r="I158" s="6"/>
       <c r="J158" s="5"/>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B159" s="14"/>
       <c r="C159" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
@@ -3344,7 +3431,7 @@
       <c r="I159" s="6"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>6</v>
       </c>
@@ -3358,7 +3445,7 @@
       <c r="I160" s="16"/>
       <c r="J160" s="17"/>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
         <v>7</v>
       </c>
@@ -3378,7 +3465,7 @@
       <c r="I161" s="22"/>
       <c r="J161" s="19"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
       <c r="B162" s="21"/>
       <c r="C162" s="20"/>
@@ -3390,13 +3477,13 @@
       <c r="I162" s="23"/>
       <c r="J162" s="21"/>
     </row>
-    <row r="163" spans="1:10">
-      <c r="A163" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B163" s="5"/>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B163" s="41"/>
       <c r="C163" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="5"/>
@@ -3405,18 +3492,18 @@
       </c>
       <c r="G163" s="5"/>
       <c r="H163" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I163" s="6"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="5"/>
@@ -3425,18 +3512,18 @@
       </c>
       <c r="G164" s="5"/>
       <c r="H164" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="5"/>
@@ -3445,18 +3532,18 @@
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I165" s="6"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="5"/>
@@ -3465,18 +3552,18 @@
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I166" s="6"/>
       <c r="J166" s="5"/>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="5"/>
@@ -3485,12 +3572,12 @@
       </c>
       <c r="G167" s="5"/>
       <c r="H167" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I167" s="6"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="4"/>
@@ -3502,7 +3589,7 @@
       <c r="I168" s="6"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="4"/>
@@ -3514,13 +3601,13 @@
       <c r="I169" s="6"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B171" s="14"/>
       <c r="C171" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
@@ -3530,13 +3617,13 @@
       <c r="I171" s="6"/>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B172" s="14"/>
       <c r="C172" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
@@ -3546,7 +3633,7 @@
       <c r="I172" s="6"/>
       <c r="J172" s="5"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>6</v>
       </c>
@@ -3560,7 +3647,7 @@
       <c r="I173" s="16"/>
       <c r="J173" s="17"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="18" t="s">
         <v>7</v>
       </c>
@@ -3580,7 +3667,7 @@
       <c r="I174" s="22"/>
       <c r="J174" s="19"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
       <c r="B175" s="21"/>
       <c r="C175" s="20"/>
@@ -3592,13 +3679,13 @@
       <c r="I175" s="23"/>
       <c r="J175" s="21"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D176" s="6"/>
       <c r="E176" s="5"/>
@@ -3607,18 +3694,18 @@
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I176" s="6"/>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="5"/>
@@ -3627,12 +3714,12 @@
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I177" s="6"/>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="4"/>
@@ -3644,7 +3731,7 @@
       <c r="I178" s="6"/>
       <c r="J178" s="5"/>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="4"/>
@@ -3656,7 +3743,7 @@
       <c r="I179" s="6"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="4"/>
@@ -3668,7 +3755,7 @@
       <c r="I180" s="6"/>
       <c r="J180" s="5"/>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="4"/>
@@ -3680,7 +3767,7 @@
       <c r="I181" s="6"/>
       <c r="J181" s="5"/>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="4"/>
@@ -3692,13 +3779,13 @@
       <c r="I182" s="6"/>
       <c r="J182" s="5"/>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B184" s="14"/>
       <c r="C184" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
@@ -3708,13 +3795,13 @@
       <c r="I184" s="6"/>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B185" s="14"/>
       <c r="C185" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
@@ -3724,7 +3811,7 @@
       <c r="I185" s="6"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
         <v>6</v>
       </c>
@@ -3738,7 +3825,7 @@
       <c r="I186" s="16"/>
       <c r="J186" s="17"/>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
         <v>7</v>
       </c>
@@ -3758,7 +3845,7 @@
       <c r="I187" s="22"/>
       <c r="J187" s="19"/>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
       <c r="B188" s="21"/>
       <c r="C188" s="20"/>
@@ -3770,13 +3857,13 @@
       <c r="I188" s="23"/>
       <c r="J188" s="21"/>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D189" s="6"/>
       <c r="E189" s="5"/>
@@ -3785,18 +3872,18 @@
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I189" s="6"/>
       <c r="J189" s="5"/>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D190" s="6"/>
       <c r="E190" s="5"/>
@@ -3805,12 +3892,12 @@
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I190" s="6"/>
       <c r="J190" s="5"/>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="4"/>
@@ -3822,7 +3909,7 @@
       <c r="I191" s="6"/>
       <c r="J191" s="5"/>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="4"/>
@@ -3834,7 +3921,7 @@
       <c r="I192" s="6"/>
       <c r="J192" s="5"/>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="4"/>
@@ -3846,7 +3933,7 @@
       <c r="I193" s="6"/>
       <c r="J193" s="5"/>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="4"/>
@@ -3858,7 +3945,7 @@
       <c r="I194" s="6"/>
       <c r="J194" s="5"/>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="4"/>
@@ -3996,9 +4083,6 @@
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="F48:G48"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="F49:G49"/>
@@ -4008,11 +4092,8 @@
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
     <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
     <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="C59:E59"/>
     <mergeCell ref="F59:G59"/>
@@ -4030,6 +4111,12 @@
     <mergeCell ref="C57:E58"/>
     <mergeCell ref="F57:G58"/>
     <mergeCell ref="H57:J58"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="F63:G63"/>
@@ -4428,21 +4515,39 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DDB387495ADE264BB39771AD5D24F372" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d63e19f649836db38f2e244908a8c9ea">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9974a67a-c558-4715-80c2-702e37bde580" xmlns:ns4="7f8111d8-83a9-48e4-a46c-3f5275a78710" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00e09ee65702c14b000aa75673fd3d4c" ns3:_="" ns4:_="">
-    <xsd:import namespace="9974a67a-c558-4715-80c2-702e37bde580"/>
-    <xsd:import namespace="7f8111d8-83a9-48e4-a46c-3f5275a78710"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011597D82AA56DB448934E2DDD468B6DF" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4fa52593d49d833a167c7ff4531354e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0d879487-596d-4348-876f-f35992d12014" xmlns:ns4="b2c127de-30d0-4fad-bee6-8dd763b4fdf7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19fda2333a74ba36e378df92ad6149cc" ns3:_="" ns4:_="">
+    <xsd:import namespace="0d879487-596d-4348-876f-f35992d12014"/>
+    <xsd:import namespace="b2c127de-30d0-4fad-bee6-8dd763b4fdf7"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4450,10 +4555,41 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9974a67a-c558-4715-80c2-702e37bde580" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0d879487-596d-4348-876f-f35992d12014" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b2c127de-30d0-4fad-bee6-8dd763b4fdf7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -4472,30 +4608,16 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+    <xsd:element name="SharingHintHash" ma:index="15" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f8111d8-83a9-48e4-a46c-3f5275a78710" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4598,29 +4720,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47EAC94C-74C4-4A98-AD7B-03FB5DB7C72C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE23ECC-EE5D-49EB-8C7F-8551E565AECB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEED03C-32A4-467A-906D-F184390723C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEED03C-32A4-467A-906D-F184390723C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0d879487-596d-4348-876f-f35992d12014"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b2c127de-30d0-4fad-bee6-8dd763b4fdf7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE23ECC-EE5D-49EB-8C7F-8551E565AECB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF2DDB8-DA7A-4793-BA63-BB6F8C6B77D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0d879487-596d-4348-876f-f35992d12014"/>
+    <ds:schemaRef ds:uri="b2c127de-30d0-4fad-bee6-8dd763b4fdf7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Bd/Dicionário_Dados_Microstart.xlsx
+++ b/Bd/Dicionário_Dados_Microstart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\MicroStart\Bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD559922-3DBC-44C5-92B1-F9E3E2F4DEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E135B6C-6983-44A7-8FD7-B6A9174E215E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F97B2F44-631C-4B1A-B8A0-EC6BCA9D2207}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="85">
   <si>
     <t>DICIONÁRIO DE DADOS</t>
   </si>
@@ -285,14 +285,17 @@
     <t>CODIGO_ITEM_VENDA</t>
   </si>
   <si>
-    <t>CODIGO_REGISTRO_VENDA</t>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>COD_VENDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,13 +318,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -620,6 +616,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,18 +668,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -990,20 +986,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25B40A3-EAC1-4FDA-A215-91A86A7DB5E8}">
   <dimension ref="A1:P195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L188" sqref="L188"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S85" sqref="S85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
       <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1015,11 +1011,11 @@
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -1333,15 +1329,15 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="24">
+      <c r="F22" s="28">
         <v>6</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24" t="s">
+      <c r="G22" s="28"/>
+      <c r="H22" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1353,483 +1349,491 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="24">
+      <c r="F23" s="28">
         <v>6</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="24">
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="28">
+        <v>10</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24" t="s">
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28">
+        <v>2</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="24" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26" t="s">
+      <c r="G33" s="30"/>
+      <c r="H33" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28">
         <v>6</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24" t="s">
+      <c r="G35" s="28"/>
+      <c r="H35" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24">
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28">
         <v>6</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24" t="s">
+      <c r="G36" s="28"/>
+      <c r="H36" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24">
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28">
         <v>6</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24" t="s">
+      <c r="G37" s="28"/>
+      <c r="H37" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24">
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28">
         <v>5</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24" t="s">
+      <c r="G38" s="28"/>
+      <c r="H38" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24">
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28">
         <v>50</v>
       </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24" t="s">
+      <c r="G39" s="28"/>
+      <c r="H39" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="24" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="24" t="s">
+      <c r="B42" s="30"/>
+      <c r="C42" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26" t="s">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26" t="s">
+      <c r="G44" s="30"/>
+      <c r="H44" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24" t="s">
+      <c r="B46" s="28"/>
+      <c r="C46" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24">
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28">
         <v>6</v>
       </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24" t="s">
+      <c r="G46" s="28"/>
+      <c r="H46" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24" t="s">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24">
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28">
         <v>35</v>
       </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24" t="s">
+      <c r="G47" s="28"/>
+      <c r="H47" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24" t="s">
+      <c r="B48" s="28"/>
+      <c r="C48" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24">
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28">
         <v>25</v>
       </c>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24" t="s">
+      <c r="G48" s="28"/>
+      <c r="H48" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24" t="s">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24">
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28">
         <v>2</v>
       </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24" t="s">
+      <c r="G49" s="28"/>
+      <c r="H49" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24" t="s">
+      <c r="B50" s="28"/>
+      <c r="C50" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28">
         <v>15</v>
       </c>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24" t="s">
+      <c r="G50" s="28"/>
+      <c r="H50" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24" t="s">
+      <c r="B51" s="28"/>
+      <c r="C51" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24">
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28">
         <v>35</v>
       </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24" t="s">
+      <c r="G51" s="28"/>
+      <c r="H51" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24" t="s">
+      <c r="B52" s="28"/>
+      <c r="C52" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24">
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28">
         <v>9</v>
       </c>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24" t="s">
+      <c r="G52" s="28"/>
+      <c r="H52" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
@@ -2128,10 +2132,10 @@
       <c r="J71" s="21"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="40" t="s">
+      <c r="A72" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="41"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="4" t="s">
         <v>11</v>
       </c>
@@ -2380,7 +2384,7 @@
       <c r="D87" s="6"/>
       <c r="E87" s="5"/>
       <c r="F87" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="4" t="s">
@@ -2390,14 +2394,22 @@
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="B88" s="5"/>
-      <c r="C88" s="4"/>
+      <c r="C88" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D88" s="6"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="4"/>
+      <c r="F88" s="4">
+        <v>2</v>
+      </c>
       <c r="G88" s="5"/>
-      <c r="H88" s="4"/>
+      <c r="H88" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I88" s="6"/>
       <c r="J88" s="5"/>
     </row>
@@ -2516,10 +2528,10 @@
       <c r="J97" s="21"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="40" t="s">
+      <c r="A98" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="41"/>
+      <c r="B98" s="25"/>
       <c r="C98" s="4" t="s">
         <v>21</v>
       </c>
@@ -2756,7 +2768,7 @@
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="4" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="5"/>
@@ -2782,10 +2794,10 @@
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="38" t="s">
+      <c r="A115" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B115" s="39"/>
+      <c r="B115" s="27"/>
       <c r="C115" s="4" t="s">
         <v>21</v>
       </c>
@@ -3098,10 +3110,10 @@
       <c r="J136" s="21"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="38" t="s">
+      <c r="A137" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B137" s="39"/>
+      <c r="B137" s="27"/>
       <c r="C137" s="4" t="s">
         <v>21</v>
       </c>
@@ -3276,10 +3288,10 @@
       <c r="J149" s="21"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="38" t="s">
+      <c r="A150" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B150" s="39"/>
+      <c r="B150" s="27"/>
       <c r="C150" s="4" t="s">
         <v>21</v>
       </c>
@@ -3361,7 +3373,7 @@
       </c>
       <c r="B154" s="5"/>
       <c r="C154" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="5"/>
@@ -3370,7 +3382,7 @@
       </c>
       <c r="G154" s="5"/>
       <c r="H154" s="4" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="5"/>
@@ -3478,10 +3490,10 @@
       <c r="J162" s="21"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B163" s="41"/>
+      <c r="A163" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B163" s="25"/>
       <c r="C163" s="4" t="s">
         <v>21</v>
       </c>

--- a/Bd/Dicionário_Dados_Microstart.xlsx
+++ b/Bd/Dicionário_Dados_Microstart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projetos\MicroStart\Bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE72F40-996C-445F-9318-605F362CB445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41B24F4-0BDE-4B2F-A439-B447E0D228CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{F97B2F44-631C-4B1A-B8A0-EC6BCA9D2207}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F97B2F44-631C-4B1A-B8A0-EC6BCA9D2207}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="82">
   <si>
     <t>DICIONÁRIO DE DADOS</t>
   </si>
@@ -268,6 +268,18 @@
   </si>
   <si>
     <t>CON_LOTE</t>
+  </si>
+  <si>
+    <t>QUANTIDADE_LOTE</t>
+  </si>
+  <si>
+    <t>PREÇO</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>STATUS_PAG</t>
   </si>
 </sst>
 </file>
@@ -538,42 +550,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -603,13 +601,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -624,46 +634,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,314 +992,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25B40A3-EAC1-4FDA-A215-91A86A7DB5E8}">
-  <dimension ref="A1:P158"/>
+  <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:J56"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="J1" s="35" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="37"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="N6" s="45"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="12">
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5">
         <v>6</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="12">
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5">
         <v>18</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="12">
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5">
         <v>20</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="12" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="12">
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5">
         <v>50</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="12">
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5">
         <v>50</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="I14" s="7"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="12">
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5">
         <v>100</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="12">
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5">
         <v>1</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="12" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1302,47 +1317,47 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="18" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="18" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="19"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="21"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="27">
         <v>6</v>
       </c>
@@ -1354,15 +1369,15 @@
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="27">
         <v>6</v>
       </c>
@@ -1374,15 +1389,15 @@
       <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="27">
         <v>10</v>
       </c>
@@ -1394,10 +1409,10 @@
       <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="27" t="s">
         <v>21</v>
       </c>
@@ -1414,8 +1429,8 @@
       <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -1426,8 +1441,8 @@
       <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -1438,8 +1453,8 @@
       <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -1846,1863 +1861,1736 @@
       <c r="J53" s="27"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="14"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="6"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="42" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="44"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="26"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="17"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="18" t="s">
+      <c r="B58" s="15"/>
+      <c r="C58" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="18" t="s">
+      <c r="D58" s="18"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="18" t="s">
+      <c r="G58" s="15"/>
+      <c r="H58" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="22"/>
-      <c r="J58" s="19"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="15"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="21"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="17"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="12" t="s">
+      <c r="B60" s="21"/>
+      <c r="C60" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="12">
+      <c r="D60" s="7"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="5">
         <v>6</v>
       </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="12" t="s">
+      <c r="G60" s="6"/>
+      <c r="H60" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I60" s="13"/>
-      <c r="J60" s="14"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="6"/>
+      <c r="C61" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="12">
+      <c r="D61" s="7"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5">
         <v>6</v>
       </c>
-      <c r="G61" s="14"/>
-      <c r="H61" s="12" t="s">
+      <c r="G61" s="6"/>
+      <c r="H61" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="14"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="12" t="s">
+      <c r="B62" s="6"/>
+      <c r="C62" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="12">
+      <c r="D62" s="7"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5">
         <v>6</v>
       </c>
-      <c r="G62" s="14"/>
-      <c r="H62" s="12" t="s">
+      <c r="G62" s="6"/>
+      <c r="H62" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I62" s="13"/>
-      <c r="J62" s="14"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="14"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="6"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="14"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="6"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="14"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="6"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="14"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="6"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="14"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="6"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="12" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="14"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="6"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="17"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="13"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="18" t="s">
+      <c r="B71" s="15"/>
+      <c r="C71" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="18" t="s">
+      <c r="D71" s="18"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="18" t="s">
+      <c r="G71" s="15"/>
+      <c r="H71" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I71" s="22"/>
-      <c r="J71" s="19"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="15"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="21"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="17"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="12" t="s">
+      <c r="B73" s="6"/>
+      <c r="C73" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="12">
+      <c r="D73" s="7"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="5">
         <v>6</v>
       </c>
-      <c r="G73" s="14"/>
-      <c r="H73" s="12" t="s">
+      <c r="G73" s="6"/>
+      <c r="H73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="13"/>
-      <c r="J73" s="14"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="6"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="12" t="s">
+      <c r="B74" s="6"/>
+      <c r="C74" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="12">
+      <c r="D74" s="7"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="5">
         <v>30</v>
       </c>
-      <c r="G74" s="14"/>
-      <c r="H74" s="12" t="s">
+      <c r="G74" s="6"/>
+      <c r="H74" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I74" s="13"/>
-      <c r="J74" s="14"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="6"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="6"/>
+      <c r="C75" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="12">
+      <c r="D75" s="7"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="5">
         <v>10</v>
       </c>
-      <c r="G75" s="14"/>
-      <c r="H75" s="12" t="s">
+      <c r="G75" s="6"/>
+      <c r="H75" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="13"/>
-      <c r="J75" s="14"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="6"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="12" t="s">
+      <c r="B76" s="6"/>
+      <c r="C76" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="12">
+      <c r="D76" s="7"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="5">
         <v>6</v>
       </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="12" t="s">
+      <c r="G76" s="6"/>
+      <c r="H76" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I76" s="13"/>
-      <c r="J76" s="14"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="6"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="12" t="s">
+      <c r="B77" s="23"/>
+      <c r="C77" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="12">
+      <c r="D77" s="7"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="5">
         <v>6</v>
       </c>
-      <c r="G77" s="14"/>
-      <c r="H77" s="12" t="s">
+      <c r="G77" s="6"/>
+      <c r="H77" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I77" s="13"/>
-      <c r="J77" s="14"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="6"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="12" t="s">
+      <c r="B78" s="6"/>
+      <c r="C78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="12">
+      <c r="D78" s="7"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="5">
         <v>20</v>
       </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="12" t="s">
+      <c r="G78" s="6"/>
+      <c r="H78" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I78" s="13"/>
-      <c r="J78" s="14"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="6"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="12" t="s">
+      <c r="B79" s="6"/>
+      <c r="C79" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="12">
+      <c r="D79" s="7"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="5">
         <v>6</v>
       </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="12" t="s">
+      <c r="G79" s="6"/>
+      <c r="H79" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I79" s="13"/>
-      <c r="J79" s="14"/>
-      <c r="L79" s="41"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="6"/>
+      <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="12" t="s">
+      <c r="B80" s="6"/>
+      <c r="C80" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="12">
+      <c r="D80" s="7"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5">
         <v>500</v>
       </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="14"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="6"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12" t="s">
+      <c r="B82" s="10"/>
+      <c r="C82" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="14"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="6"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="14"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="6"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="17"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="13"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="18" t="s">
+      <c r="B85" s="15"/>
+      <c r="C85" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="18" t="s">
+      <c r="D85" s="18"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G85" s="19"/>
-      <c r="H85" s="18" t="s">
+      <c r="G85" s="15"/>
+      <c r="H85" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="22"/>
-      <c r="J85" s="19"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="15"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="21"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="17"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="12" t="s">
+      <c r="B87" s="6"/>
+      <c r="C87" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="12">
+      <c r="D87" s="7"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="5">
         <v>6</v>
       </c>
-      <c r="G87" s="14"/>
-      <c r="H87" s="12" t="s">
+      <c r="G87" s="6"/>
+      <c r="H87" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I87" s="13"/>
-      <c r="J87" s="14"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="6"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="12" t="s">
+      <c r="B88" s="6"/>
+      <c r="C88" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="12">
+      <c r="D88" s="7"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5">
         <v>20</v>
       </c>
-      <c r="G88" s="14"/>
-      <c r="H88" s="12" t="s">
+      <c r="G88" s="6"/>
+      <c r="H88" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I88" s="13"/>
-      <c r="J88" s="14"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="6"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="14"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="6"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="14"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="6"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="14"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="6"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="14"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="6"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="14"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="6"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12" t="s">
+      <c r="B95" s="10"/>
+      <c r="C95" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="14"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="6"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12" t="s">
+      <c r="B96" s="10"/>
+      <c r="C96" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="14"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="6"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="17"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="13"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="19"/>
-      <c r="C98" s="18" t="s">
+      <c r="B98" s="15"/>
+      <c r="C98" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="18" t="s">
+      <c r="D98" s="18"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G98" s="19"/>
-      <c r="H98" s="18" t="s">
+      <c r="G98" s="15"/>
+      <c r="H98" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I98" s="22"/>
-      <c r="J98" s="19"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="15"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="21"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="17"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="33" t="s">
+      <c r="A100" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B100" s="34"/>
-      <c r="C100" s="12" t="s">
+      <c r="B100" s="23"/>
+      <c r="C100" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D100" s="13"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="12">
+      <c r="D100" s="7"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="5">
         <v>6</v>
       </c>
-      <c r="G100" s="14"/>
-      <c r="H100" s="12" t="s">
+      <c r="G100" s="6"/>
+      <c r="H100" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I100" s="13"/>
-      <c r="J100" s="14"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="6"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="12" t="s">
+      <c r="B101" s="6"/>
+      <c r="C101" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="13"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="12">
+      <c r="D101" s="7"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="5">
         <v>20</v>
       </c>
-      <c r="G101" s="14"/>
-      <c r="H101" s="12" t="s">
+      <c r="G101" s="6"/>
+      <c r="H101" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I101" s="13"/>
-      <c r="J101" s="14"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="6"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="14"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="6"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="14"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="6"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="14"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="6"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="14"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="6"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="14"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="6"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="11"/>
-      <c r="C108" s="12" t="s">
+      <c r="B108" s="10"/>
+      <c r="C108" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="14"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="6"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="12" t="s">
+      <c r="B109" s="10"/>
+      <c r="C109" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="14"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="6"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="17"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="13"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
+      <c r="A111" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="18" t="s">
+      <c r="B111" s="15"/>
+      <c r="C111" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="22"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="18" t="s">
+      <c r="D111" s="18"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G111" s="19"/>
-      <c r="H111" s="18" t="s">
+      <c r="G111" s="15"/>
+      <c r="H111" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I111" s="22"/>
-      <c r="J111" s="19"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="15"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="23"/>
-      <c r="J112" s="21"/>
+      <c r="A112" s="16"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="17"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="33" t="s">
+      <c r="A113" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="34"/>
-      <c r="C113" s="12" t="s">
+      <c r="B113" s="23"/>
+      <c r="C113" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="13"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="12">
+      <c r="D113" s="7"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="5">
         <v>6</v>
       </c>
-      <c r="G113" s="14"/>
-      <c r="H113" s="12" t="s">
+      <c r="G113" s="6"/>
+      <c r="H113" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I113" s="13"/>
-      <c r="J113" s="14"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="6"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="12" t="s">
+      <c r="B114" s="6"/>
+      <c r="C114" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D114" s="13"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="12">
+      <c r="D114" s="7"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="5">
         <v>6</v>
       </c>
-      <c r="G114" s="14"/>
-      <c r="H114" s="12" t="s">
+      <c r="G114" s="6"/>
+      <c r="H114" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I114" s="13"/>
-      <c r="J114" s="14"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="6"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="12" t="s">
+      <c r="B115" s="6"/>
+      <c r="C115" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D115" s="13"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="12">
+      <c r="D115" s="7"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="5">
         <v>6</v>
       </c>
-      <c r="G115" s="14"/>
-      <c r="H115" s="12" t="s">
+      <c r="G115" s="6"/>
+      <c r="H115" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I115" s="13"/>
-      <c r="J115" s="14"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="6"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="12" t="s">
+      <c r="B116" s="6"/>
+      <c r="C116" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D116" s="13"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="12">
+      <c r="D116" s="7"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="5">
         <v>6</v>
       </c>
-      <c r="G116" s="14"/>
-      <c r="H116" s="12" t="s">
+      <c r="G116" s="6"/>
+      <c r="H116" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I116" s="13"/>
-      <c r="J116" s="14"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="6"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="12" t="s">
+      <c r="B117" s="6"/>
+      <c r="C117" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D117" s="13"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="12">
+      <c r="D117" s="7"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="5">
         <v>10</v>
       </c>
-      <c r="G117" s="14"/>
-      <c r="H117" s="12" t="s">
+      <c r="G117" s="6"/>
+      <c r="H117" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I117" s="13"/>
-      <c r="J117" s="14"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="6"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="14"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="6"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="14"/>
+      <c r="A119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="6"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="12" t="s">
+      <c r="B121" s="10"/>
+      <c r="C121" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="14"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="6"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12" t="s">
+      <c r="B122" s="10"/>
+      <c r="C122" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="14"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="6"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="17"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="13"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="18" t="s">
+      <c r="B124" s="15"/>
+      <c r="C124" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="22"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="18" t="s">
+      <c r="D124" s="18"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G124" s="19"/>
-      <c r="H124" s="18" t="s">
+      <c r="G124" s="15"/>
+      <c r="H124" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I124" s="22"/>
-      <c r="J124" s="19"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="15"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="20"/>
-      <c r="I125" s="23"/>
-      <c r="J125" s="21"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="17"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="31" t="s">
+      <c r="A126" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B126" s="32"/>
-      <c r="C126" s="12" t="s">
+      <c r="B126" s="21"/>
+      <c r="C126" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D126" s="13"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="12">
+      <c r="D126" s="7"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="5">
         <v>6</v>
       </c>
-      <c r="G126" s="14"/>
-      <c r="H126" s="12" t="s">
+      <c r="G126" s="6"/>
+      <c r="H126" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I126" s="13"/>
-      <c r="J126" s="14"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="6"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="12" t="s">
+      <c r="B127" s="6"/>
+      <c r="C127" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="13"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="12">
+      <c r="D127" s="7"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="5">
         <v>6</v>
       </c>
-      <c r="G127" s="14"/>
-      <c r="H127" s="12" t="s">
+      <c r="G127" s="6"/>
+      <c r="H127" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I127" s="13"/>
-      <c r="J127" s="14"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="6"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="12" t="s">
+      <c r="B128" s="6"/>
+      <c r="C128" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D128" s="13"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="12">
+      <c r="D128" s="7"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="5">
         <v>2</v>
       </c>
-      <c r="G128" s="14"/>
-      <c r="H128" s="12" t="s">
+      <c r="G128" s="6"/>
+      <c r="H128" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I128" s="13"/>
-      <c r="J128" s="14"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="6"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="12" t="s">
+      <c r="B129" s="6"/>
+      <c r="C129" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="12">
+      <c r="D129" s="7"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="5">
         <v>6</v>
       </c>
-      <c r="G129" s="14"/>
-      <c r="H129" s="12" t="s">
+      <c r="G129" s="6"/>
+      <c r="H129" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I129" s="13"/>
-      <c r="J129" s="14"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="6"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="5">
+        <v>6</v>
+      </c>
+      <c r="G130" s="6"/>
+      <c r="H130" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I130" s="7"/>
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="12" t="s">
+      <c r="B131" s="6"/>
+      <c r="C131" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D130" s="13"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="12">
+      <c r="D131" s="7"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="5">
         <v>8</v>
       </c>
-      <c r="G130" s="14"/>
-      <c r="H130" s="12" t="s">
+      <c r="G131" s="6"/>
+      <c r="H131" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I130" s="13"/>
-      <c r="J130" s="14"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="14"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="6"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="14"/>
+      <c r="A132" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="5">
+        <v>6</v>
+      </c>
+      <c r="G132" s="6"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133" s="6"/>
+      <c r="C133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="5">
+        <v>12</v>
+      </c>
+      <c r="G133" s="6"/>
+      <c r="H133" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" s="7"/>
+      <c r="J133" s="6"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B134" s="6"/>
+      <c r="C134" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="5">
+        <v>6</v>
+      </c>
+      <c r="G134" s="6"/>
+      <c r="H134" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" s="7"/>
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B135" s="6"/>
+      <c r="C135" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="H135" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" s="7"/>
+      <c r="J135" s="6"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="12" t="s">
+      <c r="B137" s="10"/>
+      <c r="C137" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="14"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B135" s="11"/>
-      <c r="C135" s="12" t="s">
+      <c r="B138" s="10"/>
+      <c r="C138" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
-      <c r="J135" s="14"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B136" s="16"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16"/>
-      <c r="J136" s="17"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="18" t="s">
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="13"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B137" s="19"/>
-      <c r="C137" s="18" t="s">
+      <c r="B140" s="15"/>
+      <c r="C140" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="22"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="18" t="s">
+      <c r="D140" s="18"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G137" s="19"/>
-      <c r="H137" s="18" t="s">
+      <c r="G140" s="15"/>
+      <c r="H140" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I137" s="22"/>
-      <c r="J137" s="19"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
-      <c r="B138" s="21"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="23"/>
-      <c r="J138" s="21"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
+      <c r="I140" s="18"/>
+      <c r="J140" s="15"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="17"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="12" t="s">
+      <c r="B142" s="6"/>
+      <c r="C142" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D139" s="13"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="12">
+      <c r="D142" s="7"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="5">
         <v>2</v>
       </c>
-      <c r="G139" s="14"/>
-      <c r="H139" s="12" t="s">
+      <c r="G142" s="6"/>
+      <c r="H142" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I139" s="13"/>
-      <c r="J139" s="14"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
+      <c r="I142" s="7"/>
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="12" t="s">
+      <c r="B143" s="6"/>
+      <c r="C143" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D140" s="13"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="12">
+      <c r="D143" s="7"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="5">
         <v>20</v>
       </c>
-      <c r="G140" s="14"/>
-      <c r="H140" s="12" t="s">
+      <c r="G143" s="6"/>
+      <c r="H143" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I140" s="13"/>
-      <c r="J140" s="14"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="14"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="14"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="13"/>
-      <c r="J143" s="14"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="6"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="13"/>
-      <c r="J144" s="14"/>
+      <c r="A144" s="5"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="6"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="13"/>
-      <c r="J145" s="14"/>
+      <c r="A145" s="5"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="6"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="6"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="5"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="6"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="6"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B147" s="11"/>
-      <c r="C147" s="12" t="s">
+      <c r="B150" s="10"/>
+      <c r="C150" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="13"/>
-      <c r="J147" s="14"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="6"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="11"/>
-      <c r="C148" s="12" t="s">
+      <c r="B151" s="10"/>
+      <c r="C151" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="13"/>
-      <c r="J148" s="14"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="15" t="s">
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="6"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
-      <c r="J149" s="17"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="18" t="s">
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="13"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="19"/>
-      <c r="C150" s="18" t="s">
+      <c r="B153" s="15"/>
+      <c r="C153" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="22"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="18" t="s">
+      <c r="D153" s="18"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G150" s="19"/>
-      <c r="H150" s="18" t="s">
+      <c r="G153" s="15"/>
+      <c r="H153" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I150" s="22"/>
-      <c r="J150" s="19"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
-      <c r="B151" s="21"/>
-      <c r="C151" s="20"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="21"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="23"/>
-      <c r="J151" s="21"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="12" t="s">
+      <c r="I153" s="18"/>
+      <c r="J153" s="15"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="17"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B152" s="14"/>
-      <c r="C152" s="12" t="s">
+      <c r="B155" s="6"/>
+      <c r="C155" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D152" s="13"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="12">
+      <c r="D155" s="7"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="5">
         <v>6</v>
       </c>
-      <c r="G152" s="14"/>
-      <c r="H152" s="12" t="s">
+      <c r="G155" s="6"/>
+      <c r="H155" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I152" s="13"/>
-      <c r="J152" s="14"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
+      <c r="I155" s="7"/>
+      <c r="J155" s="6"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B153" s="14"/>
-      <c r="C153" s="12" t="s">
+      <c r="B156" s="6"/>
+      <c r="C156" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D153" s="13"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="12">
+      <c r="D156" s="7"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="5">
         <v>20</v>
       </c>
-      <c r="G153" s="14"/>
-      <c r="H153" s="12" t="s">
+      <c r="G156" s="6"/>
+      <c r="H156" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I153" s="13"/>
-      <c r="J153" s="14"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="13"/>
-      <c r="J154" s="14"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
-      <c r="B155" s="14"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="13"/>
-      <c r="J155" s="14"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="12"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="13"/>
-      <c r="J156" s="14"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="6"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="13"/>
-      <c r="J157" s="14"/>
+      <c r="A157" s="5"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="6"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="12"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="13"/>
-      <c r="J158" s="14"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="6"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="6"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="6"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="445">
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:E158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="J1:P2"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:E156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:J156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="H157:J157"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:J154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:J155"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:J153"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="C148:J148"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="A150:B151"/>
-    <mergeCell ref="C150:E151"/>
-    <mergeCell ref="F150:G151"/>
-    <mergeCell ref="H150:J151"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="H145:J145"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:J147"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:J141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:J139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="H140:J140"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:J135"/>
-    <mergeCell ref="A136:J136"/>
-    <mergeCell ref="A137:B138"/>
-    <mergeCell ref="C137:E138"/>
-    <mergeCell ref="F137:G138"/>
-    <mergeCell ref="H137:J138"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="H132:J132"/>
+  <mergeCells count="457">
+    <mergeCell ref="A133:B133"/>
     <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="H131:J131"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="H126:J126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="H127:J127"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:J122"/>
-    <mergeCell ref="A123:J123"/>
-    <mergeCell ref="A124:B125"/>
-    <mergeCell ref="C124:E125"/>
-    <mergeCell ref="F124:G125"/>
-    <mergeCell ref="H124:J125"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:J119"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:J121"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="H117:J117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H118:J118"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:J109"/>
-    <mergeCell ref="A110:J110"/>
-    <mergeCell ref="A111:B112"/>
-    <mergeCell ref="C111:E112"/>
-    <mergeCell ref="F111:G112"/>
-    <mergeCell ref="H111:J112"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:J108"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="A98:B99"/>
-    <mergeCell ref="C98:E99"/>
-    <mergeCell ref="F98:G99"/>
-    <mergeCell ref="H98:J99"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A85:B86"/>
-    <mergeCell ref="C85:E86"/>
-    <mergeCell ref="F85:G86"/>
-    <mergeCell ref="H85:J86"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:J82"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:E72"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="H71:J72"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:E59"/>
-    <mergeCell ref="F58:G59"/>
-    <mergeCell ref="H58:J59"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:E22"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="H21:J22"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:E35"/>
+    <mergeCell ref="F34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="F47:G47"/>
@@ -3724,113 +3612,326 @@
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="F49:G49"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:E35"/>
-    <mergeCell ref="F34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:E22"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="H21:J22"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:E59"/>
+    <mergeCell ref="F58:G59"/>
+    <mergeCell ref="H58:J59"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:E72"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="H71:J72"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A85:B86"/>
+    <mergeCell ref="C85:E86"/>
+    <mergeCell ref="F85:G86"/>
+    <mergeCell ref="H85:J86"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="A98:B99"/>
+    <mergeCell ref="C98:E99"/>
+    <mergeCell ref="F98:G99"/>
+    <mergeCell ref="H98:J99"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:J109"/>
+    <mergeCell ref="A110:J110"/>
+    <mergeCell ref="A111:B112"/>
+    <mergeCell ref="C111:E112"/>
+    <mergeCell ref="F111:G112"/>
+    <mergeCell ref="H111:J112"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:J108"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:J121"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:J122"/>
+    <mergeCell ref="A123:J123"/>
+    <mergeCell ref="A124:B125"/>
+    <mergeCell ref="C124:E125"/>
+    <mergeCell ref="F124:G125"/>
+    <mergeCell ref="H124:J125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:J138"/>
+    <mergeCell ref="A139:J139"/>
+    <mergeCell ref="A140:B141"/>
+    <mergeCell ref="C140:E141"/>
+    <mergeCell ref="F140:G141"/>
+    <mergeCell ref="H140:J141"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:J137"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:J145"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:J150"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:E156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:J151"/>
+    <mergeCell ref="A152:J152"/>
+    <mergeCell ref="A153:B154"/>
+    <mergeCell ref="C153:E154"/>
+    <mergeCell ref="F153:G154"/>
+    <mergeCell ref="H153:J154"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="F155:G155"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3838,18 +3939,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4044,6 +4145,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE23ECC-EE5D-49EB-8C7F-8551E565AECB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEED03C-32A4-467A-906D-F184390723C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -4056,14 +4165,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="b2c127de-30d0-4fad-bee6-8dd763b4fdf7"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE23ECC-EE5D-49EB-8C7F-8551E565AECB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
